--- a/APM files/135583412/Exports Results/135583412 EXPORT 1 RoomType&RatePlan template_result.xlsx
+++ b/APM files/135583412/Exports Results/135583412 EXPORT 1 RoomType&RatePlan template_result.xlsx
@@ -227,8 +227,14 @@
     <col min="140" max="140" width="25.78125" customWidth="true"/>
     <col min="141" max="141" width="42.1875" customWidth="true"/>
     <col min="142" max="142" width="42.1875" customWidth="true"/>
-    <col min="143" max="143" width="12.890625" customWidth="true"/>
-    <col min="144" max="144" width="8.203125" customWidth="true"/>
+    <col min="143" max="143" width="32.8125" customWidth="true"/>
+    <col min="144" max="144" width="32.8125" customWidth="true"/>
+    <col min="145" max="145" width="16.40625" customWidth="true"/>
+    <col min="146" max="146" width="28.125" customWidth="true"/>
+    <col min="147" max="147" width="30.46875" customWidth="true"/>
+    <col min="148" max="148" width="32.8125" customWidth="true"/>
+    <col min="149" max="149" width="12.890625" customWidth="true"/>
+    <col min="150" max="150" width="8.203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -944,10 +950,40 @@
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
+          <t>BeddingOption1 for Bedroom 1</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>BeddingOption2 for Bedroom 1</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>ExtraBedding 1</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>ExtraBedding 1 Cost Type</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>ExtraBedding 1 Cost Amount</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>ExtraBedding 1 Cost Duration</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
           <t>Status Code</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>Message</t>
         </is>
@@ -956,17 +992,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>99205032</t>
+          <t>98496070</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -981,7 +1017,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>99205032</t>
+          <t>98496070</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -996,7 +1032,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1026,17 +1062,17 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Large Studio in Heritage Building Near Camden</t>
+          <t>Delightful Studio on Regents Park Road</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -1046,12 +1082,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>323549495</t>
+          <t>322935297</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>714679</t>
+          <t>3688833</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -1074,7 +1110,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y2"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>1</t>
@@ -1087,22 +1127,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Microwave:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,Fireplace:BookableUnit:UnknownAvailability,RollawayExtraBeds:Unavailable:BookableUnit,Kitchen:BookableUnit,DigitalTV:BookableUnit,ShowerOnly:BookableUnit,Oven:InRoom:BookableUnit,HairDryer:BookableUnit,Television:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Refrigerator:BookableUnit,SeparateLivingRoom:BookableUnit,WiFi:InRoom:Free:BookableUnit,Bathroom:Private:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,DesignerToiletries:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,Iron:BookableUnit,AirConditioning:UnknownAvailability:BookableUnit,RoomSize:BookableUnit,Heating:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Crib:UnknownAvailability:BookableUnit,ElectricKettle:BookableUnit,Bathroom:BookableUnit,CookwareDishwareUtensils:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,Towels:Available:Bookable</t>
+          <t>Bedroom:BookableUnit,Bathroom:BookableUnit,Microwave:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Toiletries:Free:BookableUnit,FlatscreenTV:BookableUnit,ShowerOnly:BookableUnit,Kitchen:BookableUnit,HairDryer:BookableUnit,RoomSize:BookableUnit,SeparateLivingRoom:BookableUnit,Iron:BookableUnit,NoSpecialViews:BookableUnit,Refrigerator:BookableUnit,WiFi:InRoom:Free:BookableUnit,CookwareDishwareUtensils:BookableUnit,Stovetop:BookableUnit,Bathroom:Private:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bedroom:UnknownAvailability:BookableUnit</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -1117,7 +1157,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -1127,7 +1167,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -1143,7 +1183,11 @@
       <c r="AQ2"/>
       <c r="AR2"/>
       <c r="AS2"/>
-      <c r="AT2"/>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU2"/>
       <c r="AV2"/>
       <c r="AW2" t="inlineStr">
@@ -1153,14 +1197,14 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ2" t="inlineStr">
         <is>
           <t/>
@@ -1183,7 +1227,7 @@
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
@@ -1193,12 +1237,12 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>392190776</t>
+          <t>392126721</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>3688833</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
@@ -1228,7 +1272,7 @@
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>714679</t>
+          <t>3688833</t>
         </is>
       </c>
       <c r="BN2"/>
@@ -1320,7 +1364,7 @@
       </c>
       <c r="CG2" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH2" t="inlineStr">
@@ -1345,7 +1389,7 @@
       </c>
       <c r="CL2" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 4</t>
         </is>
       </c>
       <c r="CM2" t="inlineStr">
@@ -1430,12 +1474,12 @@
       </c>
       <c r="DC2" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD2" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE2" t="inlineStr">
@@ -1471,7 +1515,7 @@
       </c>
       <c r="DP2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="DQ2" t="inlineStr">
@@ -1553,12 +1597,12 @@
       </c>
       <c r="EH2" t="inlineStr">
         <is>
-          <t>392190776</t>
+          <t>392126721</t>
         </is>
       </c>
       <c r="EI2" t="inlineStr">
         <is>
-          <t>392190776</t>
+          <t>392126721</t>
         </is>
       </c>
       <c r="EJ2"/>
@@ -1574,29 +1618,55 @@
       </c>
       <c r="EM2" t="inlineStr">
         <is>
+          <t>2 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>1 Crib | Crib</t>
+        </is>
+      </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>Surcharge</t>
+        </is>
+      </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>per stay</t>
+        </is>
+      </c>
+      <c r="ES2" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN2" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET2"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>99204990</t>
+          <t>98496070</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1611,7 +1681,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>99204990</t>
+          <t>98496070</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1626,7 +1696,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1656,17 +1726,17 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Delightful Studio in Primrose Hill</t>
+          <t>Delightful Studio on Regents Park Road</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1676,12 +1746,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>323549492</t>
+          <t>322935297</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>714678</t>
+          <t>3688833</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -1704,7 +1774,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y3"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>1</t>
@@ -1717,22 +1791,22 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Heating:BookableUnit,Crib:UnknownAvailability:BookableUnit,Fireplace:BookableUnit:UnknownAvailability,ShowerOnly:BookableUnit,ElectricKettle:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,DigitalTV:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,DesignerToiletries:BookableUnit,RoomSize:BookableUnit,Toaster:BookableUnit,SeparateLivingRoom:BookableUnit,HairDryer:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,CeilingFan:UnknownAvailability:BookableUnit,Bedroom:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,Kitchen:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Oven:InRoom:BookableUnit,Television:BookableUnit,Refrigerator:BookableUnit,Desk:UnknownAvailability:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bathroom:Private:BookableUnit,Spices:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,Bathtub:UnknownAvailability:BookableUnit,Microwave:BookableUnit,Towels:Available:BookableUnit,Pool:InRoom:Priv</t>
+          <t>Bedroom:BookableUnit,Bathroom:BookableUnit,Microwave:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Toiletries:Free:BookableUnit,FlatscreenTV:BookableUnit,ShowerOnly:BookableUnit,Kitchen:BookableUnit,HairDryer:BookableUnit,RoomSize:BookableUnit,SeparateLivingRoom:BookableUnit,Iron:BookableUnit,NoSpecialViews:BookableUnit,Refrigerator:BookableUnit,WiFi:InRoom:Free:BookableUnit,CookwareDishwareUtensils:BookableUnit,Stovetop:BookableUnit,Bathroom:Private:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bedroom:UnknownAvailability:BookableUnit</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1747,7 +1821,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1757,7 +1831,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1773,7 +1847,11 @@
       <c r="AQ3"/>
       <c r="AR3"/>
       <c r="AS3"/>
-      <c r="AT3"/>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU3"/>
       <c r="AV3"/>
       <c r="AW3" t="inlineStr">
@@ -1783,14 +1861,14 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ3" t="inlineStr">
         <is>
           <t/>
@@ -1813,7 +1891,7 @@
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
@@ -1823,17 +1901,17 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>392190775</t>
+          <t>392220128</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>BAR Package</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
@@ -1858,7 +1936,7 @@
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>714678</t>
+          <t>PKG</t>
         </is>
       </c>
       <c r="BN3"/>
@@ -1950,7 +2028,7 @@
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
@@ -1975,7 +2053,7 @@
       </c>
       <c r="CL3" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 4</t>
         </is>
       </c>
       <c r="CM3" t="inlineStr">
@@ -2060,12 +2138,12 @@
       </c>
       <c r="DC3" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE3" t="inlineStr">
@@ -2101,19 +2179,19 @@
       </c>
       <c r="DP3" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR3" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DQ3" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DR3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="DS3" t="inlineStr">
         <is>
           <t>28</t>
@@ -2174,21 +2252,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="EE3"/>
-      <c r="EF3"/>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>392126721</t>
+        </is>
+      </c>
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
       <c r="EG3" t="inlineStr">
         <is>
-          <t/>
+          <t>All</t>
         </is>
       </c>
       <c r="EH3" t="inlineStr">
         <is>
-          <t>392190775</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="EI3" t="inlineStr">
         <is>
-          <t>392190775</t>
+          <t>392220128</t>
         </is>
       </c>
       <c r="EJ3"/>
@@ -2204,29 +2290,55 @@
       </c>
       <c r="EM3" t="inlineStr">
         <is>
+          <t>2 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>1 Crib | Crib</t>
+        </is>
+      </c>
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>Surcharge</t>
+        </is>
+      </c>
+      <c r="EQ3" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>per stay</t>
+        </is>
+      </c>
+      <c r="ES3" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN3" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET3"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>99453009</t>
+          <t>98496070</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2241,7 +2353,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>99453009</t>
+          <t>98496070</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2256,7 +2368,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2286,39 +2398,39 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Large Studio Near Leafy Primrose Hill</t>
+          <t>Delightful Studio on Regents Park Road</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>322935297</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>3688833</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>323605661</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>716086</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Inactive</t>
-        </is>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
           <t>No</t>
@@ -2334,7 +2446,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y4"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>1</t>
@@ -2347,37 +2463,37 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>SeparateLivingRoom:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,Iron:BookableUnit,AirConditioning:UnknownAvailability:BookableUnit,Microwave:BookableUnit,Crib:UnknownAvailability:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bathroom:Private:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,Television:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,Spices:BookableUnit,DigitalTV:BookableUnit,Heating:BookableUnit,ShowerOnly:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,Kitchen:BookableUnit,Bedsheets:Available:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,Bedroom:BookableUnit,Bathroom:BookableUnit,ElectricKettle:BookableUnit,Toaster:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,CeilingFan:UnknownAvailability:BookableUnit,Refrigerator:BookableUnit,Towels:Available:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,Desk:UnknownAvailability:BookableUn</t>
+          <t>Bedroom:BookableUnit,Bathroom:BookableUnit,Microwave:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Toiletries:Free:BookableUnit,FlatscreenTV:BookableUnit,ShowerOnly:BookableUnit,Kitchen:BookableUnit,HairDryer:BookableUnit,RoomSize:BookableUnit,SeparateLivingRoom:BookableUnit,Iron:BookableUnit,NoSpecialViews:BookableUnit,Refrigerator:BookableUnit,WiFi:InRoom:Free:BookableUnit,CookwareDishwareUtensils:BookableUnit,Stovetop:BookableUnit,Bathroom:Private:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bedroom:UnknownAvailability:BookableUnit</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -2387,7 +2503,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -2403,7 +2519,11 @@
       <c r="AQ4"/>
       <c r="AR4"/>
       <c r="AS4"/>
-      <c r="AT4"/>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU4"/>
       <c r="AV4"/>
       <c r="AW4" t="inlineStr">
@@ -2413,14 +2533,14 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ4" t="inlineStr">
         <is>
           <t/>
@@ -2443,7 +2563,7 @@
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>1 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
@@ -2451,88 +2571,384 @@
           <t/>
         </is>
       </c>
-      <c r="BF4"/>
-      <c r="BG4"/>
-      <c r="BH4"/>
-      <c r="BI4"/>
-      <c r="BJ4"/>
-      <c r="BK4"/>
-      <c r="BL4"/>
-      <c r="BM4"/>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>392220138</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>Early Book</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>OccupancyBasedPricing</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>EB30</t>
+        </is>
+      </c>
       <c r="BN4"/>
       <c r="BO4"/>
-      <c r="BP4"/>
-      <c r="BQ4"/>
-      <c r="BR4"/>
-      <c r="BS4"/>
-      <c r="BT4"/>
-      <c r="BU4"/>
-      <c r="BV4"/>
-      <c r="BW4"/>
-      <c r="BX4"/>
-      <c r="BY4"/>
-      <c r="BZ4"/>
-      <c r="CA4"/>
-      <c r="CB4"/>
-      <c r="CC4"/>
-      <c r="CD4"/>
-      <c r="CE4"/>
-      <c r="CF4"/>
-      <c r="CG4"/>
-      <c r="CH4"/>
-      <c r="CI4"/>
-      <c r="CJ4"/>
-      <c r="CK4"/>
-      <c r="CL4"/>
-      <c r="CM4"/>
-      <c r="CN4"/>
-      <c r="CO4"/>
-      <c r="CP4"/>
-      <c r="CQ4"/>
-      <c r="CR4"/>
-      <c r="CS4"/>
-      <c r="CT4"/>
-      <c r="CU4"/>
-      <c r="CV4"/>
-      <c r="CW4"/>
-      <c r="CX4"/>
-      <c r="CY4"/>
-      <c r="CZ4"/>
-      <c r="DA4"/>
-      <c r="DB4"/>
-      <c r="DC4"/>
-      <c r="DD4"/>
-      <c r="DE4"/>
-      <c r="DF4"/>
-      <c r="DG4"/>
-      <c r="DH4"/>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>FullCostOfStay</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>Standalone FeeSet 4</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CY4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>EC Default 16.5%</t>
+        </is>
+      </c>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="DI4"/>
       <c r="DJ4"/>
       <c r="DK4"/>
       <c r="DL4"/>
       <c r="DM4"/>
       <c r="DN4"/>
-      <c r="DO4"/>
-      <c r="DP4"/>
-      <c r="DQ4"/>
-      <c r="DR4"/>
-      <c r="DS4"/>
-      <c r="DT4" s="3"/>
-      <c r="DU4" s="3"/>
-      <c r="DV4" s="3"/>
-      <c r="DW4" s="3"/>
-      <c r="DX4"/>
-      <c r="DY4"/>
-      <c r="DZ4"/>
-      <c r="EA4"/>
-      <c r="EB4"/>
-      <c r="EC4"/>
-      <c r="ED4"/>
-      <c r="EE4"/>
-      <c r="EF4"/>
-      <c r="EG4"/>
-      <c r="EH4"/>
-      <c r="EI4"/>
+      <c r="DO4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="DQ4" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DS4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="DT4" s="3" t="inlineStr">
+        <is>
+          <t>01/01/1900</t>
+        </is>
+      </c>
+      <c r="DU4" s="3" t="inlineStr">
+        <is>
+          <t>06/06/2079</t>
+        </is>
+      </c>
+      <c r="DV4" s="3" t="inlineStr">
+        <is>
+          <t>01/01/1900</t>
+        </is>
+      </c>
+      <c r="DW4" s="3" t="inlineStr">
+        <is>
+          <t>06/06/2079</t>
+        </is>
+      </c>
+      <c r="DX4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DY4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="DZ4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="EB4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EC4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>392126721</t>
+        </is>
+      </c>
+      <c r="EF4" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
+      <c r="EG4" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="EH4" t="inlineStr">
+        <is>
+          <t>Derived</t>
+        </is>
+      </c>
+      <c r="EI4" t="inlineStr">
+        <is>
+          <t>392220138</t>
+        </is>
+      </c>
       <c r="EJ4"/>
       <c r="EK4" t="inlineStr">
         <is>
@@ -2546,29 +2962,55 @@
       </c>
       <c r="EM4" t="inlineStr">
         <is>
+          <t>2 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO4" t="inlineStr">
+        <is>
+          <t>1 Crib | Crib</t>
+        </is>
+      </c>
+      <c r="EP4" t="inlineStr">
+        <is>
+          <t>Surcharge</t>
+        </is>
+      </c>
+      <c r="EQ4" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="ER4" t="inlineStr">
+        <is>
+          <t>per stay</t>
+        </is>
+      </c>
+      <c r="ES4" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN4" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET4"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>99453008</t>
+          <t>99545962</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2583,7 +3025,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>99453008</t>
+          <t>99545962</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2598,7 +3040,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2628,39 +3070,39 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Spacious Studio Near Wonderful Primrose Hill</t>
+          <t>Mezzanine Flat in Historic NW London Terrace</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>323625661</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>3690891</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>323605659</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>716084</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
           <t>No</t>
@@ -2676,7 +3118,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y5"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
           <t>1</t>
@@ -2689,22 +3135,22 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>Spices:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,Kitchen:BookableUnit,RoomSize:BookableUnit,HairDryer:BookableUnit,Bathroom:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,Oven:InRoom:BookableUnit,Bathroom:Private:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,Towels:Available:BookableUnit,Bedroom:BookableUnit,WiFi:InRoom:Free:BookableUnit,Microwave:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,AirConditioning:UnknownAvailability:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,Desk:UnknownAvailability:BookableUnit,Bedsheets:Available:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,Television:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Heating:BookableUnit,DesignerToiletries:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,ElectricKettle:BookableUnit,CookwareDishwareUtensils:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Refrigerator:BookableUnit,Iron:BookableUni</t>
+          <t>HairDryer:BookableUnit,NoSpecialViews:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,Bathroom:BookableUnit,Microwave:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bathroom:Private:BookableUnit,CookwareDishwareUtensils:BookableUnit,Iron:BookableUnit,Kitchen:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,ShowerOnly:BookableUnit,FlatscreenTV:BookableUnit,Stovetop:BookableUnit,WiFi:InRoom:Free:BookableUnit,Refrigerator:BookableUnit,RoomSize:BookableUnit,SeparateLivingRoom:BookableUnit,Bedroom:BookableUnit</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -2719,7 +3165,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -2729,7 +3175,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -2745,7 +3191,11 @@
       <c r="AQ5"/>
       <c r="AR5"/>
       <c r="AS5"/>
-      <c r="AT5"/>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU5"/>
       <c r="AV5"/>
       <c r="AW5" t="inlineStr">
@@ -2755,14 +3205,14 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ5" t="inlineStr">
         <is>
           <t/>
@@ -2785,7 +3235,7 @@
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
@@ -2795,12 +3245,12 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>392324779</t>
+          <t>392367415</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>3690891</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
@@ -2830,7 +3280,7 @@
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>716084</t>
+          <t>3690891</t>
         </is>
       </c>
       <c r="BN5"/>
@@ -2922,7 +3372,7 @@
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
@@ -2947,7 +3397,7 @@
       </c>
       <c r="CL5" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 4</t>
         </is>
       </c>
       <c r="CM5" t="inlineStr">
@@ -3032,12 +3482,12 @@
       </c>
       <c r="DC5" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE5" t="inlineStr">
@@ -3073,7 +3523,7 @@
       </c>
       <c r="DP5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="DQ5" t="inlineStr">
@@ -3155,12 +3605,12 @@
       </c>
       <c r="EH5" t="inlineStr">
         <is>
-          <t>392324779</t>
+          <t>392367415</t>
         </is>
       </c>
       <c r="EI5" t="inlineStr">
         <is>
-          <t>392324779</t>
+          <t>392367415</t>
         </is>
       </c>
       <c r="EJ5"/>
@@ -3176,29 +3626,55 @@
       </c>
       <c r="EM5" t="inlineStr">
         <is>
+          <t>2 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr">
+        <is>
+          <t>1 Crib | Crib</t>
+        </is>
+      </c>
+      <c r="EP5" t="inlineStr">
+        <is>
+          <t>Surcharge</t>
+        </is>
+      </c>
+      <c r="EQ5" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="ER5" t="inlineStr">
+        <is>
+          <t>per stay</t>
+        </is>
+      </c>
+      <c r="ES5" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN5" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET5"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>99453153</t>
+          <t>99545962</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3213,7 +3689,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>99453153</t>
+          <t>99545962</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3228,7 +3704,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3258,39 +3734,39 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Studio in Historic Building Near Primrose Hill</t>
+          <t>Mezzanine Flat in Historic NW London Terrace</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>323625661</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>3690891</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>323605662</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>716088</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
           <t>No</t>
@@ -3306,7 +3782,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y6"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
           <t>1</t>
@@ -3319,22 +3799,22 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>CoffeeTeaMaker:InRoom:BookableUnit,HairDryer:BookableUnit,DesignerToiletries:BookableUnit,Television:BookableUnit,Bathroom:BookableUnit,Microwave:BookableUnit,Oven:InRoom:BookableUnit,Heating:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,AirConditioning:UnknownAvailability:BookableUnit,Bedsheets:Available:BookableUnit,Fireplace:BookableUnit:UnknownAvailability,Laundry:InRoom:BookableUnit:UnknownAvailability,Kitchen:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,Bedroom:BookableUnit,SeparateLivingRoom:BookableUnit,ElectricKettle:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,Towels:Available:BookableUnit,Spices:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,Bathroom:Private:BookableUnit,Desk:UnknownAvailability:BookableUnit,Refrigerator:BookableUnit,Crib:UnknownAvailability:Booka</t>
+          <t>HairDryer:BookableUnit,NoSpecialViews:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,Bathroom:BookableUnit,Microwave:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bathroom:Private:BookableUnit,CookwareDishwareUtensils:BookableUnit,Iron:BookableUnit,Kitchen:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,ShowerOnly:BookableUnit,FlatscreenTV:BookableUnit,Stovetop:BookableUnit,WiFi:InRoom:Free:BookableUnit,Refrigerator:BookableUnit,RoomSize:BookableUnit,SeparateLivingRoom:BookableUnit,Bedroom:BookableUnit</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -3349,7 +3829,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -3359,7 +3839,7 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -3375,7 +3855,11 @@
       <c r="AQ6"/>
       <c r="AR6"/>
       <c r="AS6"/>
-      <c r="AT6"/>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU6"/>
       <c r="AV6"/>
       <c r="AW6" t="inlineStr">
@@ -3385,14 +3869,14 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ6" t="inlineStr">
         <is>
           <t/>
@@ -3415,7 +3899,7 @@
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
@@ -3425,17 +3909,17 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>392324781</t>
+          <t>392506710</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
@@ -3460,7 +3944,7 @@
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>716088</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="BN6"/>
@@ -3552,7 +4036,7 @@
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
@@ -3577,7 +4061,7 @@
       </c>
       <c r="CL6" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 4</t>
         </is>
       </c>
       <c r="CM6" t="inlineStr">
@@ -3662,12 +4146,12 @@
       </c>
       <c r="DC6" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE6" t="inlineStr">
@@ -3703,19 +4187,19 @@
       </c>
       <c r="DP6" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DQ6" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR6" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DQ6" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DR6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="DS6" t="inlineStr">
         <is>
           <t>28</t>
@@ -3776,21 +4260,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="EE6"/>
-      <c r="EF6"/>
+      <c r="EE6" t="inlineStr">
+        <is>
+          <t>392367415</t>
+        </is>
+      </c>
+      <c r="EF6" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
       <c r="EG6" t="inlineStr">
         <is>
-          <t/>
+          <t>All</t>
         </is>
       </c>
       <c r="EH6" t="inlineStr">
         <is>
-          <t>392324781</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="EI6" t="inlineStr">
         <is>
-          <t>392324781</t>
+          <t>392506710</t>
         </is>
       </c>
       <c r="EJ6"/>
@@ -3806,29 +4298,55 @@
       </c>
       <c r="EM6" t="inlineStr">
         <is>
+          <t>2 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO6" t="inlineStr">
+        <is>
+          <t>1 Crib | Crib</t>
+        </is>
+      </c>
+      <c r="EP6" t="inlineStr">
+        <is>
+          <t>Surcharge</t>
+        </is>
+      </c>
+      <c r="EQ6" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="ER6" t="inlineStr">
+        <is>
+          <t>per stay</t>
+        </is>
+      </c>
+      <c r="ES6" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN6" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET6"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>99453410</t>
+          <t>99545962</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3843,7 +4361,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>99453410</t>
+          <t>99545962</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3858,7 +4376,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3888,39 +4406,39 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Prime Studio in Fashionable Primrose Hill</t>
+          <t>Mezzanine Flat in Historic NW London Terrace</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>323625661</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>3690891</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>323606560</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>716093</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
           <t>No</t>
@@ -3936,7 +4454,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y7"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
           <t>1</t>
@@ -3949,22 +4471,22 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>SeparateLivingRoom:BookableUnit,Bedroom:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Toaster:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,ElectricKettle:BookableUnit,Desk:UnknownAvailability:BookableUnit,CookwareDishwareUtensils:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,Spices:BookableUnit,Oven:InRoom:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Crib:UnknownAvailability:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,Television:BookableUnit,Kitchen:BookableUnit,Heating:BookableUnit,ShowerOnly:BookableUnit,Bedsheets:Available:BookableUnit,Refrigerator:BookableUnit,Towels:Available:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,Bathroom:BookableUnit,WiFi:InRoom:Free:BookableUnit,HairDryer:BookableUnit,DesignerToiletries:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,Microwave:BookableUnit,CeilingFan:UnknownAvailability:BookableUnit,Iron:BookableUnit,AirConditioning:UnknownAvailabilit</t>
+          <t>HairDryer:BookableUnit,NoSpecialViews:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,Bathroom:BookableUnit,Microwave:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bathroom:Private:BookableUnit,CookwareDishwareUtensils:BookableUnit,Iron:BookableUnit,Kitchen:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,ShowerOnly:BookableUnit,FlatscreenTV:BookableUnit,Stovetop:BookableUnit,WiFi:InRoom:Free:BookableUnit,Refrigerator:BookableUnit,RoomSize:BookableUnit,SeparateLivingRoom:BookableUnit,Bedroom:BookableUnit</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -3979,7 +4501,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -3989,7 +4511,7 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -4005,7 +4527,11 @@
       <c r="AQ7"/>
       <c r="AR7"/>
       <c r="AS7"/>
-      <c r="AT7"/>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU7"/>
       <c r="AV7"/>
       <c r="AW7" t="inlineStr">
@@ -4015,14 +4541,14 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ7" t="inlineStr">
         <is>
           <t/>
@@ -4045,7 +4571,7 @@
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
@@ -4055,12 +4581,12 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>392327558</t>
+          <t>392506756</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>Nonrefundable</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
@@ -4090,7 +4616,7 @@
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>716093</t>
+          <t>NOREFUND</t>
         </is>
       </c>
       <c r="BN7"/>
@@ -4182,7 +4708,7 @@
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
@@ -4207,7 +4733,7 @@
       </c>
       <c r="CL7" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 4</t>
         </is>
       </c>
       <c r="CM7" t="inlineStr">
@@ -4292,12 +4818,12 @@
       </c>
       <c r="DC7" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD7" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE7" t="inlineStr">
@@ -4333,19 +4859,19 @@
       </c>
       <c r="DP7" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="DQ7" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR7" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DQ7" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DR7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="DS7" t="inlineStr">
         <is>
           <t>28</t>
@@ -4406,21 +4932,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="EE7"/>
-      <c r="EF7"/>
+      <c r="EE7" t="inlineStr">
+        <is>
+          <t>392367415</t>
+        </is>
+      </c>
+      <c r="EF7" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
       <c r="EG7" t="inlineStr">
         <is>
-          <t/>
+          <t>All</t>
         </is>
       </c>
       <c r="EH7" t="inlineStr">
         <is>
-          <t>392327558</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="EI7" t="inlineStr">
         <is>
-          <t>392327558</t>
+          <t>392506756</t>
         </is>
       </c>
       <c r="EJ7"/>
@@ -4436,29 +4970,55 @@
       </c>
       <c r="EM7" t="inlineStr">
         <is>
+          <t>2 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>1 Crib | Crib</t>
+        </is>
+      </c>
+      <c r="EP7" t="inlineStr">
+        <is>
+          <t>Surcharge</t>
+        </is>
+      </c>
+      <c r="EQ7" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="ER7" t="inlineStr">
+        <is>
+          <t>per stay</t>
+        </is>
+      </c>
+      <c r="ES7" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN7" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET7"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>99453413</t>
+          <t>99545949</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4473,7 +5033,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>99453413</t>
+          <t>99545949</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4488,7 +5048,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -4518,17 +5078,17 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Bright Studio in Historic Camden Terrace</t>
+          <t>Studio in Grade 2 Listed Primrose Hill Terrace</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -4538,12 +5098,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>323606580</t>
+          <t>323625656</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>716094</t>
+          <t>3690894</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -4566,7 +5126,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y8"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
           <t>1</t>
@@ -4579,22 +5143,22 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Towels:Available:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,CookwareDishwareUtensils:BookableUnit,DigitalTV:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Kitchen:BookableUnit,ElectricKettle:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,Iron:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Microwave:BookableUnit,Bedroom:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,Crib:UnknownAvailability:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,Desk:UnknownAvailability:BookableUnit,WiFi:InRoom:Free:BookableUnit,HairDryer:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,ShowerOnly:BookableUnit,Spices:BookableUnit,Bathroom:Private:BookableUnit,Bathroom:BookableUnit,Television:BookableUnit,AirConditioning:UnknownAvailability:BookableUnit,RoomSize:BookableUnit,Separa</t>
+          <t>Bedroom:UnknownAvailability:BookableUnit,ShowerOnly:BookableUnit,Stovetop:BookableUnit,SeparateLivingRoom:BookableUnit,Kitchen:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,FlatscreenTV:BookableUnit,Bedroom:BookableUnit,WiFi:InRoom:Free:BookableUnit,Bathroom:Private:BookableUnit,Refrigerator:BookableUnit,Bathroom:BookableUnit,NoSpecialViews:BookableUnit,RoomSize:BookableUnit,CookwareDishwareUtensils:BookableUnit,Iron:BookableUnit,Microwave:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,HairDryer:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -4609,7 +5173,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -4619,7 +5183,7 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
@@ -4635,7 +5199,11 @@
       <c r="AQ8"/>
       <c r="AR8"/>
       <c r="AS8"/>
-      <c r="AT8"/>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU8"/>
       <c r="AV8"/>
       <c r="AW8" t="inlineStr">
@@ -4645,14 +5213,14 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ8" t="inlineStr">
         <is>
           <t/>
@@ -4675,7 +5243,7 @@
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
@@ -4685,12 +5253,12 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>392327581</t>
+          <t>392367405</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>3690894</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
@@ -4720,7 +5288,7 @@
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>716094</t>
+          <t>3690894</t>
         </is>
       </c>
       <c r="BN8"/>
@@ -4812,7 +5380,7 @@
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
@@ -4837,7 +5405,7 @@
       </c>
       <c r="CL8" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 4</t>
         </is>
       </c>
       <c r="CM8" t="inlineStr">
@@ -4922,12 +5490,12 @@
       </c>
       <c r="DC8" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD8" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE8" t="inlineStr">
@@ -4963,7 +5531,7 @@
       </c>
       <c r="DP8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="DQ8" t="inlineStr">
@@ -5045,12 +5613,12 @@
       </c>
       <c r="EH8" t="inlineStr">
         <is>
-          <t>392327581</t>
+          <t>392367405</t>
         </is>
       </c>
       <c r="EI8" t="inlineStr">
         <is>
-          <t>392327581</t>
+          <t>392367405</t>
         </is>
       </c>
       <c r="EJ8"/>
@@ -5066,29 +5634,55 @@
       </c>
       <c r="EM8" t="inlineStr">
         <is>
+          <t>1 FullBed | Full</t>
+        </is>
+      </c>
+      <c r="EN8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO8" t="inlineStr">
+        <is>
+          <t>1 Crib | Crib</t>
+        </is>
+      </c>
+      <c r="EP8" t="inlineStr">
+        <is>
+          <t>Surcharge</t>
+        </is>
+      </c>
+      <c r="EQ8" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="ER8" t="inlineStr">
+        <is>
+          <t>per stay</t>
+        </is>
+      </c>
+      <c r="ES8" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN8" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET8"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>99453427</t>
+          <t>99545949</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5103,7 +5697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>99453427</t>
+          <t>99545949</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -5118,7 +5712,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -5148,39 +5742,39 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Large Studio With Garden Views in Leafy NW London</t>
+          <t>Studio in Grade 2 Listed Primrose Hill Terrace</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>323625656</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>3690894</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>323606626</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>716096</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
           <t>No</t>
@@ -5196,7 +5790,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y9"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
@@ -5209,22 +5807,22 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>Spices:BookableUnit,Television:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,Refrigerator:BookableUnit,Oven:InRoom:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,Towels:Available:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,Toaster:BookableUnit,CeilingFan:UnknownAvailability:BookableUnit,HairDryer:BookableUnit,Iron:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,WiredInternet:InRoom:Free:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,CookwareDishwareUtensils:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Heating:BookableUnit,AirConditioning:UnknownAvailability:BookableUnit,Kitchen:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,ShowerOnly:BookableUnit,SeparateLivingRoom:BookableUnit,Bedsheets:Available:BookableUnit,Fireplace:BookableUnit:UnknownAvailability,RoomSize:BookableUnit,WiFi:InRoom:Free:BookableUnit,Bathroom:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,Bathroom:Private:BookableUnit,Crib:UnknownAvailabili</t>
+          <t>Bedroom:UnknownAvailability:BookableUnit,ShowerOnly:BookableUnit,Stovetop:BookableUnit,SeparateLivingRoom:BookableUnit,Kitchen:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,FlatscreenTV:BookableUnit,Bedroom:BookableUnit,WiFi:InRoom:Free:BookableUnit,Bathroom:Private:BookableUnit,Refrigerator:BookableUnit,Bathroom:BookableUnit,NoSpecialViews:BookableUnit,RoomSize:BookableUnit,CookwareDishwareUtensils:BookableUnit,Iron:BookableUnit,Microwave:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,HairDryer:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -5239,7 +5837,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -5249,7 +5847,7 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -5265,7 +5863,11 @@
       <c r="AQ9"/>
       <c r="AR9"/>
       <c r="AS9"/>
-      <c r="AT9"/>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU9"/>
       <c r="AV9"/>
       <c r="AW9" t="inlineStr">
@@ -5275,14 +5877,14 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ9" t="inlineStr">
         <is>
           <t/>
@@ -5305,7 +5907,7 @@
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
@@ -5315,17 +5917,17 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>392327726</t>
+          <t>392506713</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
@@ -5350,7 +5952,7 @@
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>716096</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="BN9"/>
@@ -5442,7 +6044,7 @@
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
@@ -5467,7 +6069,7 @@
       </c>
       <c r="CL9" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 4</t>
         </is>
       </c>
       <c r="CM9" t="inlineStr">
@@ -5552,12 +6154,12 @@
       </c>
       <c r="DC9" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD9" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE9" t="inlineStr">
@@ -5593,19 +6195,19 @@
       </c>
       <c r="DP9" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DQ9" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DQ9" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DR9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="DS9" t="inlineStr">
         <is>
           <t>28</t>
@@ -5666,21 +6268,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="EE9"/>
-      <c r="EF9"/>
+      <c r="EE9" t="inlineStr">
+        <is>
+          <t>392367405</t>
+        </is>
+      </c>
+      <c r="EF9" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
       <c r="EG9" t="inlineStr">
         <is>
-          <t/>
+          <t>All</t>
         </is>
       </c>
       <c r="EH9" t="inlineStr">
         <is>
-          <t>392327726</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="EI9" t="inlineStr">
         <is>
-          <t>392327726</t>
+          <t>392506713</t>
         </is>
       </c>
       <c r="EJ9"/>
@@ -5696,29 +6306,55 @@
       </c>
       <c r="EM9" t="inlineStr">
         <is>
+          <t>1 FullBed | Full</t>
+        </is>
+      </c>
+      <c r="EN9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO9" t="inlineStr">
+        <is>
+          <t>1 Crib | Crib</t>
+        </is>
+      </c>
+      <c r="EP9" t="inlineStr">
+        <is>
+          <t>Surcharge</t>
+        </is>
+      </c>
+      <c r="EQ9" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="ER9" t="inlineStr">
+        <is>
+          <t>per stay</t>
+        </is>
+      </c>
+      <c r="ES9" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN9" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET9"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>99453431</t>
+          <t>99545949</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -5733,7 +6369,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>99453431</t>
+          <t>99545949</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -5748,7 +6384,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -5778,39 +6414,39 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Large Studio Apartment in Popular Primrose Hill</t>
+          <t>Studio in Grade 2 Listed Primrose Hill Terrace</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>323625656</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>3690894</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>323606629</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>716098</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
           <t>No</t>
@@ -5826,7 +6462,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y10"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
           <t>1</t>
@@ -5839,22 +6479,22 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>CookwareDishwareUtensils:BookableUnit,Toaster:BookableUnit,Desk:UnknownAvailability:BookableUnit,SeparateLivingRoom:BookableUnit,RoomSize:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,WiFi:InRoom:Free:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,Television:BookableUnit,ElectricKettle:BookableUnit,AirConditioning:UnknownAvailability:BookableUnit,Kitchen:BookableUnit,Spices:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,Refrigerator:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,DigitalTV:BookableUnit,Bathroom:Private:BookableUnit,Iron:BookableUnit,HairDryer:BookableUnit,Bedsheets:Available:BookableUnit,Bedroom:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Heating:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,CoffeeTeaMaker:InRoom:BookableUnit,DesignerToiletries:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,Fireplace:BookableUnit:UnknownAvailability,Oven:InRoom:BookableUnit,Bat</t>
+          <t>Bedroom:UnknownAvailability:BookableUnit,ShowerOnly:BookableUnit,Stovetop:BookableUnit,SeparateLivingRoom:BookableUnit,Kitchen:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,FlatscreenTV:BookableUnit,Bedroom:BookableUnit,WiFi:InRoom:Free:BookableUnit,Bathroom:Private:BookableUnit,Refrigerator:BookableUnit,Bathroom:BookableUnit,NoSpecialViews:BookableUnit,RoomSize:BookableUnit,CookwareDishwareUtensils:BookableUnit,Iron:BookableUnit,Microwave:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,HairDryer:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -5869,7 +6509,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -5879,7 +6519,7 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
@@ -5895,7 +6535,11 @@
       <c r="AQ10"/>
       <c r="AR10"/>
       <c r="AS10"/>
-      <c r="AT10"/>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU10"/>
       <c r="AV10"/>
       <c r="AW10" t="inlineStr">
@@ -5905,14 +6549,14 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ10" t="inlineStr">
         <is>
           <t/>
@@ -5935,7 +6579,7 @@
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
@@ -5945,12 +6589,12 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>392327740</t>
+          <t>392506759</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>Nonrefundable</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
@@ -5980,7 +6624,7 @@
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>716098</t>
+          <t>NOREFUND</t>
         </is>
       </c>
       <c r="BN10"/>
@@ -6072,7 +6716,7 @@
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
@@ -6097,7 +6741,7 @@
       </c>
       <c r="CL10" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 4</t>
         </is>
       </c>
       <c r="CM10" t="inlineStr">
@@ -6182,12 +6826,12 @@
       </c>
       <c r="DC10" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD10" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE10" t="inlineStr">
@@ -6223,19 +6867,19 @@
       </c>
       <c r="DP10" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="DQ10" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DQ10" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DR10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="DS10" t="inlineStr">
         <is>
           <t>28</t>
@@ -6296,21 +6940,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="EE10"/>
-      <c r="EF10"/>
+      <c r="EE10" t="inlineStr">
+        <is>
+          <t>392367405</t>
+        </is>
+      </c>
+      <c r="EF10" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
       <c r="EG10" t="inlineStr">
         <is>
-          <t/>
+          <t>All</t>
         </is>
       </c>
       <c r="EH10" t="inlineStr">
         <is>
-          <t>392327740</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="EI10" t="inlineStr">
         <is>
-          <t>392327740</t>
+          <t>392506759</t>
         </is>
       </c>
       <c r="EJ10"/>
@@ -6326,29 +6978,55 @@
       </c>
       <c r="EM10" t="inlineStr">
         <is>
+          <t>1 FullBed | Full</t>
+        </is>
+      </c>
+      <c r="EN10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO10" t="inlineStr">
+        <is>
+          <t>1 Crib | Crib</t>
+        </is>
+      </c>
+      <c r="EP10" t="inlineStr">
+        <is>
+          <t>Surcharge</t>
+        </is>
+      </c>
+      <c r="EQ10" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="ER10" t="inlineStr">
+        <is>
+          <t>per stay</t>
+        </is>
+      </c>
+      <c r="ES10" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN10" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET10"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>99205699</t>
+          <t>98496087</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6363,7 +7041,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>99205699</t>
+          <t>98496087</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -6378,7 +7056,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -6408,32 +7086,32 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Mezzanine Apartment Near Primrose Hill</t>
+          <t>Bijou Studio in Historic Primrose Hill Terrace</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>323549554</t>
+          <t>322935315</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>714680</t>
+          <t>3688836</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -6456,7 +7134,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y11"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z11" t="inlineStr">
         <is>
           <t>1</t>
@@ -6469,22 +7151,22 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>Crib:UnknownAvailability:BookableUnit,RoomSize:BookableUnit,Kitchen:BookableUnit,DigitalTV:BookableUnit,Desk:UnknownAvailability:BookableUnit,Spices:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,Fireplace:BookableUnit:UnknownAvailability,HairDryer:BookableUnit,ElectricKettle:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,Bedsheets:Available:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,SeparateLivingRoom:BookableUnit,ShowerOnly:BookableUnit,WiFi:InRoom:Free:BookableUnit,Television:BookableUnit,Heating:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,Refrigerator:BookableUnit,Toiletries:UnknownAvailability:BookableUnit,Iron:BookableUnit,Toaster:BookableUnit,Bathroom:BookableUnit,Bathroom:Private:BookableUnit,Oven:InRoom:BookableUnit,CookwareDishwareUtensils:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Towels:Available:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bedroom:BookableUnit,AirConditioni</t>
+          <t>Kitchen:BookableUnit,Stovetop:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,ShowerOnly:BookableUnit,Refrigerator:BookableUnit,SeparateLivingRoom:BookableUnit,RoomSize:BookableUnit,CookwareDishwareUtensils:BookableUnit,Bathroom:BookableUnit,NoSpecialViews:BookableUnit,WiFi:InRoom:Free:BookableUnit,Bathroom:Private:BookableUnit,HairDryer:BookableUnit,FlatscreenTV:BookableUnit,Bedroom:BookableUnit,Iron:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,Microwave:BookableUnit</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -6499,7 +7181,7 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -6509,7 +7191,7 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -6525,7 +7207,11 @@
       <c r="AQ11"/>
       <c r="AR11"/>
       <c r="AS11"/>
-      <c r="AT11"/>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU11"/>
       <c r="AV11"/>
       <c r="AW11" t="inlineStr">
@@ -6535,14 +7221,14 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ11" t="inlineStr">
         <is>
           <t/>
@@ -6565,7 +7251,7 @@
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
@@ -6575,12 +7261,12 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>392190864</t>
+          <t>392126740</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>3688836</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
@@ -6610,7 +7296,7 @@
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>714680</t>
+          <t>3688836</t>
         </is>
       </c>
       <c r="BN11"/>
@@ -6702,7 +7388,7 @@
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
@@ -6727,7 +7413,7 @@
       </c>
       <c r="CL11" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 3</t>
         </is>
       </c>
       <c r="CM11" t="inlineStr">
@@ -6812,12 +7498,12 @@
       </c>
       <c r="DC11" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD11" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE11" t="inlineStr">
@@ -6853,7 +7539,7 @@
       </c>
       <c r="DP11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="DQ11" t="inlineStr">
@@ -6935,12 +7621,12 @@
       </c>
       <c r="EH11" t="inlineStr">
         <is>
-          <t>392190864</t>
+          <t>392126740</t>
         </is>
       </c>
       <c r="EI11" t="inlineStr">
         <is>
-          <t>392190864</t>
+          <t>392126740</t>
         </is>
       </c>
       <c r="EJ11"/>
@@ -6956,29 +7642,55 @@
       </c>
       <c r="EM11" t="inlineStr">
         <is>
+          <t>1 FullBed | Full</t>
+        </is>
+      </c>
+      <c r="EN11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EP11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EQ11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ER11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ES11" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN11" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET11"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>99206363</t>
+          <t>98496087</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -6993,7 +7705,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>99206363</t>
+          <t>98496087</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7008,7 +7720,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -7038,32 +7750,32 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Mezzanine Studio in Fashionable Primrose Hill</t>
+          <t>Bijou Studio in Historic Primrose Hill Terrace</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>323549757</t>
+          <t>322935315</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>714681</t>
+          <t>3688836</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -7086,7 +7798,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y12"/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z12" t="inlineStr">
         <is>
           <t>1</t>
@@ -7099,22 +7815,22 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>Spices:BookableUnit,RoomSize:BookableUnit,DigitalTV:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Crib:UnknownAvailability:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,Wheelchair:Accessible:UnknownAvailability:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,AirConditioning:UnknownAvailability:BookableUnit,Bedroom:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,Microwave:BookableUnit,Toaster:BookableUnit,ShowerOnly:BookableUnit,ElectricKettle:BookableUnit,Kitchen:BookableUnit,Bathroom:BookableUnit,Fireplace:BookableUnit:UnknownAvailability,Towels:Available:BookableUnit,CeilingFan:UnknownAvailability:BookableUnit,Toiletries:UnknownAvailability:BookableUnit,SeparateLivingRoom:BookableUnit,HairDryer:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,CookwareDishwareUtensils:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,WiFi:InRoom:Free:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,Bedsheets:Available:BookableUnit,Oven:InRoom:BookableUnit</t>
+          <t>Kitchen:BookableUnit,Stovetop:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,ShowerOnly:BookableUnit,Refrigerator:BookableUnit,SeparateLivingRoom:BookableUnit,RoomSize:BookableUnit,CookwareDishwareUtensils:BookableUnit,Bathroom:BookableUnit,NoSpecialViews:BookableUnit,WiFi:InRoom:Free:BookableUnit,Bathroom:Private:BookableUnit,HairDryer:BookableUnit,FlatscreenTV:BookableUnit,Bedroom:BookableUnit,Iron:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,Microwave:BookableUnit</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -7129,7 +7845,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -7139,7 +7855,7 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -7155,7 +7871,11 @@
       <c r="AQ12"/>
       <c r="AR12"/>
       <c r="AS12"/>
-      <c r="AT12"/>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU12"/>
       <c r="AV12"/>
       <c r="AW12" t="inlineStr">
@@ -7165,14 +7885,14 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ12" t="inlineStr">
         <is>
           <t/>
@@ -7195,7 +7915,7 @@
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
@@ -7205,17 +7925,17 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>392190917</t>
+          <t>392220133</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>BAR Package</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
@@ -7240,7 +7960,7 @@
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>714681</t>
+          <t>PKG</t>
         </is>
       </c>
       <c r="BN12"/>
@@ -7332,7 +8052,7 @@
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
@@ -7357,7 +8077,7 @@
       </c>
       <c r="CL12" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 3</t>
         </is>
       </c>
       <c r="CM12" t="inlineStr">
@@ -7442,12 +8162,12 @@
       </c>
       <c r="DC12" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD12" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE12" t="inlineStr">
@@ -7483,19 +8203,19 @@
       </c>
       <c r="DP12" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DQ12" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR12" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DQ12" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DR12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="DS12" t="inlineStr">
         <is>
           <t>28</t>
@@ -7556,21 +8276,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="EE12"/>
-      <c r="EF12"/>
+      <c r="EE12" t="inlineStr">
+        <is>
+          <t>392126740</t>
+        </is>
+      </c>
+      <c r="EF12" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
       <c r="EG12" t="inlineStr">
         <is>
-          <t/>
+          <t>All</t>
         </is>
       </c>
       <c r="EH12" t="inlineStr">
         <is>
-          <t>392190917</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="EI12" t="inlineStr">
         <is>
-          <t>392190917</t>
+          <t>392220133</t>
         </is>
       </c>
       <c r="EJ12"/>
@@ -7586,29 +8314,55 @@
       </c>
       <c r="EM12" t="inlineStr">
         <is>
+          <t>1 FullBed | Full</t>
+        </is>
+      </c>
+      <c r="EN12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EP12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EQ12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ER12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ES12" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN12" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET12"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>99453460</t>
+          <t>98496087</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -7623,7 +8377,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>99453460</t>
+          <t>98496087</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7638,7 +8392,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -7668,32 +8422,32 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Mezzanine Flat With Garden Views in Primrose Hill</t>
+          <t>Bijou Studio in Historic Primrose Hill Terrace</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>323606638</t>
+          <t>322935315</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>716102</t>
+          <t>3688836</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -7716,7 +8470,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y13"/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z13" t="inlineStr">
         <is>
           <t>1</t>
@@ -7729,22 +8487,22 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>CeilingFan:UnknownAvailability:BookableUnit,ElectricKettle:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,Iron:BookableUnit,Toaster:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,Refrigerator:BookableUnit,AirConditioning:UnknownAvailability:BookableUnit,Toiletries:UnknownAvailability:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,RoomSize:BookableUnit,CookwareDishwareUtensils:BookableUnit,Fireplace:BookableUnit:UnknownAvailability,ShowerOnly:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,Spices:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,Bathroom:Private:BookableUnit,Crib:UnknownAvailability:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Heating:BookableUnit,Desk:UnknownAvailability:BookableUnit,Kitchen:BookableUnit,Television:BookableUnit,Bathroom:BookableUnit,Bedsheets:Available:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,HairDryer:BookableUnit,WiFi:InRoom:Free:BookableUnit,Towels:Available:BookableUnit,SeparateLivingRoom:</t>
+          <t>Kitchen:BookableUnit,Stovetop:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,ShowerOnly:BookableUnit,Refrigerator:BookableUnit,SeparateLivingRoom:BookableUnit,RoomSize:BookableUnit,CookwareDishwareUtensils:BookableUnit,Bathroom:BookableUnit,NoSpecialViews:BookableUnit,WiFi:InRoom:Free:BookableUnit,Bathroom:Private:BookableUnit,HairDryer:BookableUnit,FlatscreenTV:BookableUnit,Bedroom:BookableUnit,Iron:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,Microwave:BookableUnit</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -7759,7 +8517,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -7769,7 +8527,7 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -7785,7 +8543,11 @@
       <c r="AQ13"/>
       <c r="AR13"/>
       <c r="AS13"/>
-      <c r="AT13"/>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU13"/>
       <c r="AV13"/>
       <c r="AW13" t="inlineStr">
@@ -7795,14 +8557,14 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ13" t="inlineStr">
         <is>
           <t/>
@@ -7825,7 +8587,7 @@
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
@@ -7835,12 +8597,12 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>392327759</t>
+          <t>392220143</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>Early Book</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
@@ -7870,7 +8632,7 @@
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>716102</t>
+          <t>EB30</t>
         </is>
       </c>
       <c r="BN13"/>
@@ -7962,7 +8724,7 @@
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
@@ -7987,7 +8749,7 @@
       </c>
       <c r="CL13" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 3</t>
         </is>
       </c>
       <c r="CM13" t="inlineStr">
@@ -8072,12 +8834,12 @@
       </c>
       <c r="DC13" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD13" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE13" t="inlineStr">
@@ -8113,19 +8875,19 @@
       </c>
       <c r="DP13" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="DQ13" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR13" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DQ13" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DR13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="DS13" t="inlineStr">
         <is>
           <t>28</t>
@@ -8186,21 +8948,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="EE13"/>
-      <c r="EF13"/>
+      <c r="EE13" t="inlineStr">
+        <is>
+          <t>392126740</t>
+        </is>
+      </c>
+      <c r="EF13" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
       <c r="EG13" t="inlineStr">
         <is>
-          <t/>
+          <t>All</t>
         </is>
       </c>
       <c r="EH13" t="inlineStr">
         <is>
-          <t>392327759</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="EI13" t="inlineStr">
         <is>
-          <t>392327759</t>
+          <t>392220143</t>
         </is>
       </c>
       <c r="EJ13"/>
@@ -8216,29 +8986,55 @@
       </c>
       <c r="EM13" t="inlineStr">
         <is>
+          <t>1 FullBed | Full</t>
+        </is>
+      </c>
+      <c r="EN13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EP13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EQ13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ER13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ES13" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN13" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET13"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>99453461</t>
+          <t>98496088</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -8253,7 +9049,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>99453461</t>
+          <t>98496088</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -8268,7 +9064,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -8298,17 +9094,17 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Mezzanine Flat With Garden Views Near Regents Park</t>
+          <t>Superb Studio Apartment With Garden Views Near Camden</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -8318,12 +9114,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>323606639</t>
+          <t>322935316</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>716103</t>
+          <t>3688837</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -8346,7 +9142,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y14"/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
@@ -8359,22 +9159,22 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>Kitchen:BookableUnit,RoomSize:BookableUnit,Toaster:BookableUnit,Crib:UnknownAvailability:BookableUnit,Bedroom:BookableUnit,WiFi:InRoom:Free:BookableUnit,Iron:BookableUnit,Refrigerator:BookableUnit,HairDryer:BookableUnit,Heating:BookableUnit,Television:BookableUnit,ElectricKettle:BookableUnit,Fireplace:BookableUnit:UnknownAvailability,RollawayExtraBeds:Unavailable:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Bathroom:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,DigitalTV:BookableUnit,Bedsheets:Available:BookableUnit,Spices:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Toiletries:UnknownAvailability:BookableUnit,CookwareDishwareUtensils:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,Desk:UnknownAvailability:BookableUnit,CeilingFan:UnknownAvailability:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,Safe:InRoom:UnknownAvailability:BookableUnit,Bathtub:UnknownA</t>
+          <t>Bathroom:Private:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bedroom:BookableUnit,FlatscreenTV:BookableUnit,Microwave:BookableUnit,NoSpecialViews:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,Kitchen:BookableUnit,RoomSize:BookableUnit,Stovetop:BookableUnit,BathtubOrShower:BookableUnit,HairDryer:BookableUnit,Bathroom:BookableUnit,Refrigerator:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,SeparateLivingRoom:BookableUnit,CookwareDishwareUtensils:BookableUnit,WiFi:InRoom:Free:BookableUnit,Iron:BookableUnit</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -8389,17 +9189,17 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t/>
+          <t>RoomSize</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
@@ -8415,7 +9215,11 @@
       <c r="AQ14"/>
       <c r="AR14"/>
       <c r="AS14"/>
-      <c r="AT14"/>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU14"/>
       <c r="AV14"/>
       <c r="AW14" t="inlineStr">
@@ -8425,14 +9229,14 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ14" t="inlineStr">
         <is>
           <t/>
@@ -8455,7 +9259,7 @@
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
@@ -8465,12 +9269,12 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>392327760</t>
+          <t>392126741</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>3688837</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
@@ -8500,7 +9304,7 @@
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>716103</t>
+          <t>3688837</t>
         </is>
       </c>
       <c r="BN14"/>
@@ -8592,7 +9396,7 @@
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
@@ -8617,7 +9421,7 @@
       </c>
       <c r="CL14" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 3</t>
         </is>
       </c>
       <c r="CM14" t="inlineStr">
@@ -8702,12 +9506,12 @@
       </c>
       <c r="DC14" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE14" t="inlineStr">
@@ -8743,7 +9547,7 @@
       </c>
       <c r="DP14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="DQ14" t="inlineStr">
@@ -8825,12 +9629,12 @@
       </c>
       <c r="EH14" t="inlineStr">
         <is>
-          <t>392327760</t>
+          <t>392126741</t>
         </is>
       </c>
       <c r="EI14" t="inlineStr">
         <is>
-          <t>392327760</t>
+          <t>392126741</t>
         </is>
       </c>
       <c r="EJ14"/>
@@ -8846,29 +9650,55 @@
       </c>
       <c r="EM14" t="inlineStr">
         <is>
+          <t>1 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EP14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EQ14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ER14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ES14" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN14" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET14"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>99453475</t>
+          <t>98496088</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -8883,7 +9713,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>99453475</t>
+          <t>98496088</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -8898,7 +9728,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -8928,17 +9758,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Mezzanine Flat in Listed Terrace Near Regents Park</t>
+          <t>Superb Studio Apartment With Garden Views Near Camden</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -8948,12 +9778,12 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>323606642</t>
+          <t>322935316</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>716104</t>
+          <t>3688837</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -8976,7 +9806,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y15"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr">
         <is>
           <t>1</t>
@@ -8989,22 +9823,22 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>ShowerOnly:BookableUnit,CeilingFan:UnknownAvailability:BookableUnit,HairDryer:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,CookwareDishwareUtensils:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,Oven:InRoom:BookableUnit,Fireplace:BookableUnit:UnknownAvailability,Towels:Available:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,Bathroom:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,Bathroom:Private:BookableUnit,Refrigerator:BookableUnit,Toaster:BookableUnit,Crib:UnknownAvailability:BookableUnit,WiFi:InRoom:Free:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,Bedsheets:Available:BookableUnit,Television:BookableUnit,Kitchen:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Bedroom:BookableUnit,Desk:UnknownAvailability:BookableUnit,DigitalTV:BookableUnit,Microwave:Bookable</t>
+          <t>Bathroom:Private:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bedroom:BookableUnit,FlatscreenTV:BookableUnit,Microwave:BookableUnit,NoSpecialViews:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,Kitchen:BookableUnit,RoomSize:BookableUnit,Stovetop:BookableUnit,BathtubOrShower:BookableUnit,HairDryer:BookableUnit,Bathroom:BookableUnit,Refrigerator:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,SeparateLivingRoom:BookableUnit,CookwareDishwareUtensils:BookableUnit,WiFi:InRoom:Free:BookableUnit,Iron:BookableUnit</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -9019,17 +9853,17 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t/>
+          <t>RoomSize</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
@@ -9045,7 +9879,11 @@
       <c r="AQ15"/>
       <c r="AR15"/>
       <c r="AS15"/>
-      <c r="AT15"/>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU15"/>
       <c r="AV15"/>
       <c r="AW15" t="inlineStr">
@@ -9055,14 +9893,14 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ15" t="inlineStr">
         <is>
           <t/>
@@ -9085,7 +9923,7 @@
       </c>
       <c r="BD15" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE15" t="inlineStr">
@@ -9095,17 +9933,17 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>392327762</t>
+          <t>392220134</t>
         </is>
       </c>
       <c r="BG15" t="inlineStr">
         <is>
-          <t>Basic Rate Plan</t>
+          <t>BAR Package</t>
         </is>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="BI15" t="inlineStr">
@@ -9130,7 +9968,7 @@
       </c>
       <c r="BM15" t="inlineStr">
         <is>
-          <t>716104</t>
+          <t>PKG</t>
         </is>
       </c>
       <c r="BN15"/>
@@ -9222,7 +10060,7 @@
       </c>
       <c r="CG15" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH15" t="inlineStr">
@@ -9247,7 +10085,7 @@
       </c>
       <c r="CL15" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 3</t>
         </is>
       </c>
       <c r="CM15" t="inlineStr">
@@ -9332,12 +10170,12 @@
       </c>
       <c r="DC15" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD15" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE15" t="inlineStr">
@@ -9373,19 +10211,19 @@
       </c>
       <c r="DP15" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DQ15" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR15" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DQ15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DR15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="DS15" t="inlineStr">
         <is>
           <t>28</t>
@@ -9446,21 +10284,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="EE15"/>
-      <c r="EF15"/>
+      <c r="EE15" t="inlineStr">
+        <is>
+          <t>392126741</t>
+        </is>
+      </c>
+      <c r="EF15" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
       <c r="EG15" t="inlineStr">
         <is>
-          <t/>
+          <t>All</t>
         </is>
       </c>
       <c r="EH15" t="inlineStr">
         <is>
-          <t>392327762</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="EI15" t="inlineStr">
         <is>
-          <t>392327762</t>
+          <t>392220134</t>
         </is>
       </c>
       <c r="EJ15"/>
@@ -9476,29 +10322,55 @@
       </c>
       <c r="EM15" t="inlineStr">
         <is>
+          <t>1 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EP15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EQ15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ER15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ES15" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN15" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET15"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>99453517</t>
+          <t>98496088</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -9513,7 +10385,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>99453517</t>
+          <t>98496088</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -9528,7 +10400,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -9558,37 +10430,37 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Mezzanine Flat in Historic NW London Terrace</t>
+          <t>Superb Studio Apartment With Garden Views Near Camden</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>323606652</t>
+          <t>322935316</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>3688837</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -9606,7 +10478,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y16"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z16" t="inlineStr">
         <is>
           <t>1</t>
@@ -9619,22 +10495,22 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>Oven:InRoom:BookableUnit,Refrigerator:BookableUnit,Toaster:BookableUnit,Desk:UnknownAvailability:BookableUnit,Bathroom:BookableUnit,Television:BookableUnit,ElectricKettle:BookableUnit,SeparateLivingRoom:BookableUnit,Crib:UnknownAvailability:BookableUnit,Heating:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,CoffeeTeaMaker:InRoom:BookableUnit,Spices:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,HairDryer:BookableUnit,RoomSize:BookableUnit,WiFi:InRoom:Free:BookableUnit,DigitalTV:BookableUnit,Towels:Available:BookableUnit,ShowerOnly:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,Bedroom:BookableUnit,Bedsheets:Available:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,Bathroom:Private:BookableUnit,CeilingFan:UnknownAvailability:BookableUnit,Iron:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,CookwareDishwareUtensils:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,WiredInternet:InRoom:Free:</t>
+          <t>Bathroom:Private:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Bedroom:BookableUnit,FlatscreenTV:BookableUnit,Microwave:BookableUnit,NoSpecialViews:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,Kitchen:BookableUnit,RoomSize:BookableUnit,Stovetop:BookableUnit,BathtubOrShower:BookableUnit,HairDryer:BookableUnit,Bathroom:BookableUnit,Refrigerator:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,SeparateLivingRoom:BookableUnit,CookwareDishwareUtensils:BookableUnit,WiFi:InRoom:Free:BookableUnit,Iron:BookableUnit</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -9649,17 +10525,17 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t/>
+          <t>RoomSize</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -9675,7 +10551,11 @@
       <c r="AQ16"/>
       <c r="AR16"/>
       <c r="AS16"/>
-      <c r="AT16"/>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU16"/>
       <c r="AV16"/>
       <c r="AW16" t="inlineStr">
@@ -9685,14 +10565,14 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ16" t="inlineStr">
         <is>
           <t/>
@@ -9715,7 +10595,7 @@
       </c>
       <c r="BD16" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE16" t="inlineStr">
@@ -9725,12 +10605,12 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>392327770</t>
+          <t>392220144</t>
         </is>
       </c>
       <c r="BG16" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>Early Book</t>
         </is>
       </c>
       <c r="BH16" t="inlineStr">
@@ -9745,7 +10625,7 @@
       </c>
       <c r="BJ16" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="BK16" t="inlineStr">
@@ -9760,7 +10640,7 @@
       </c>
       <c r="BM16" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>EB30</t>
         </is>
       </c>
       <c r="BN16"/>
@@ -9852,7 +10732,7 @@
       </c>
       <c r="CG16" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH16" t="inlineStr">
@@ -9877,7 +10757,7 @@
       </c>
       <c r="CL16" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet 3</t>
         </is>
       </c>
       <c r="CM16" t="inlineStr">
@@ -9962,12 +10842,12 @@
       </c>
       <c r="DC16" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD16" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE16" t="inlineStr">
@@ -10003,19 +10883,19 @@
       </c>
       <c r="DP16" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="DQ16" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR16" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DQ16" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DR16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="DS16" t="inlineStr">
         <is>
           <t>28</t>
@@ -10076,21 +10956,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="EE16"/>
-      <c r="EF16"/>
+      <c r="EE16" t="inlineStr">
+        <is>
+          <t>392126741</t>
+        </is>
+      </c>
+      <c r="EF16" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
       <c r="EG16" t="inlineStr">
         <is>
-          <t/>
+          <t>All</t>
         </is>
       </c>
       <c r="EH16" t="inlineStr">
         <is>
-          <t>392327770</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="EI16" t="inlineStr">
         <is>
-          <t>392327770</t>
+          <t>392220144</t>
         </is>
       </c>
       <c r="EJ16"/>
@@ -10106,29 +10994,55 @@
       </c>
       <c r="EM16" t="inlineStr">
         <is>
+          <t>1 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EP16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EQ16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ER16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ES16" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN16" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET16"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>99453521</t>
+          <t>99939491</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -10143,7 +11057,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>99453521</t>
+          <t>99939491</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -10158,7 +11072,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -10188,37 +11102,37 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Studio in Grade 2 Listed Primrose Hill Terrace</t>
+          <t>Spacious Studio Suite Near Regents Park</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>323606658</t>
+          <t>323705817</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>3690905</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -10236,7 +11150,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y17"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z17" t="inlineStr">
         <is>
           <t>1</t>
@@ -10249,22 +11167,22 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>RoomSize:BookableUnit,SeparateLivingRoom:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,Toaster:BookableUnit,CookwareDishwareUtensils:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,Heating:BookableUnit,ElectricKettle:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,Spices:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Towels:Available:BookableUnit,Desk:UnknownAvailability:BookableUnit,CeilingFan:UnknownAvailability:BookableUnit,Oven:InRoom:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,Refrigerator:BookableUnit,Bedsheets:Available:BookableUnit,Microwave:BookableUnit,Crib:UnknownAvailability:BookableUnit,AirConditioning:UnknownAvailability:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,Television:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,Bedroom:BookableUnit,Fireplace:BookableUnit:UnknownAvailability,Toiletries:UnknownAvailability:BookableUnit,ShowerOnly:BookableUnit,Coffee</t>
+          <t>Wheelchair:Accessible:UnknownAvailability:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,Kitchen:BookableUnit,Iron:BookableUnit,WiFi:InRoom:Free:BookableUnit,FlatscreenTV:BookableUnit,BathtubOrShower:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,HairDryer:BookableUnit,Bathroom:Private:BookableUnit,SeparateLivingRoom:BookableUnit,Refrigerator:BookableUnit,NoSpecialViews:BookableUnit,Bedroom:BookableUnit,RoomSize:BookableUnit,CookwareDishwareUtensils:BookableUnit,Microwave:BookableUnit,Bathroom:BookableUnit,Stovetop:BookableUnit</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -10279,7 +11197,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -10289,7 +11207,7 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
@@ -10305,7 +11223,11 @@
       <c r="AQ17"/>
       <c r="AR17"/>
       <c r="AS17"/>
-      <c r="AT17"/>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU17"/>
       <c r="AV17"/>
       <c r="AW17" t="inlineStr">
@@ -10315,14 +11237,14 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ17" t="inlineStr">
         <is>
           <t/>
@@ -10345,7 +11267,7 @@
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
@@ -10355,12 +11277,12 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>392327783</t>
+          <t>392587448</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>3690905</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
@@ -10375,7 +11297,7 @@
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -10390,7 +11312,7 @@
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>3690905</t>
         </is>
       </c>
       <c r="BN17"/>
@@ -10482,7 +11404,7 @@
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
@@ -10507,7 +11429,7 @@
       </c>
       <c r="CL17" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet</t>
         </is>
       </c>
       <c r="CM17" t="inlineStr">
@@ -10592,12 +11514,12 @@
       </c>
       <c r="DC17" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD17" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE17" t="inlineStr">
@@ -10633,7 +11555,7 @@
       </c>
       <c r="DP17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="DQ17" t="inlineStr">
@@ -10715,12 +11637,12 @@
       </c>
       <c r="EH17" t="inlineStr">
         <is>
-          <t>392327783</t>
+          <t>392587448</t>
         </is>
       </c>
       <c r="EI17" t="inlineStr">
         <is>
-          <t>392327783</t>
+          <t>392587448</t>
         </is>
       </c>
       <c r="EJ17"/>
@@ -10736,29 +11658,55 @@
       </c>
       <c r="EM17" t="inlineStr">
         <is>
+          <t>2 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EP17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EQ17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ER17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ES17" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN17" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET17"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>98487676</t>
+          <t>99939491</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -10773,7 +11721,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>98487676</t>
+          <t>99939491</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -10788,7 +11736,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -10818,37 +11766,37 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Bijou Studio in Historic Primrose Hill Terrace</t>
+          <t>Spacious Studio Suite Near Regents Park</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>322933478</t>
+          <t>323705817</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>3690905</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -10866,7 +11814,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y18"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
           <t>1</t>
@@ -10879,22 +11831,22 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>Microwave:BookableUnit,SeparateLivingRoom:BookableUnit,Iron:BookableUnit,HairDryer:BookableUnit,Fireplace:BookableUnit:UnknownAvailability,Oven:InRoom:BookableUnit,Crib:UnknownAvailability:BookableUnit,CeilingFan:UnknownAvailability:BookableUnit,Bathroom:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,Desk:UnknownAvailability:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,AirConditioning:UnknownAvailability:BookableUnit,RoomSize:BookableUnit,Refrigerator:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,ShowerOnly:BookableUnit,Heating:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,Bedsheets:Available:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,WiFi:InRoom:Free:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,DigitalTV:BookableUnit,Bathroom:Private:BookableUnit,Towels:Available:BookableUnit,ElectricKettle:BookableUnit,Kitchen:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,CoffeeTeaMaker:I</t>
+          <t>Wheelchair:Accessible:UnknownAvailability:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,Kitchen:BookableUnit,Iron:BookableUnit,WiFi:InRoom:Free:BookableUnit,FlatscreenTV:BookableUnit,BathtubOrShower:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,HairDryer:BookableUnit,Bathroom:Private:BookableUnit,SeparateLivingRoom:BookableUnit,Refrigerator:BookableUnit,NoSpecialViews:BookableUnit,Bedroom:BookableUnit,RoomSize:BookableUnit,CookwareDishwareUtensils:BookableUnit,Microwave:BookableUnit,Bathroom:BookableUnit,Stovetop:BookableUnit</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -10909,7 +11861,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -10919,7 +11871,7 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -10935,7 +11887,11 @@
       <c r="AQ18"/>
       <c r="AR18"/>
       <c r="AS18"/>
-      <c r="AT18"/>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU18"/>
       <c r="AV18"/>
       <c r="AW18" t="inlineStr">
@@ -10945,14 +11901,14 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ18" t="inlineStr">
         <is>
           <t/>
@@ -10975,7 +11931,7 @@
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
@@ -10985,17 +11941,17 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>392123256</t>
+          <t>392681561</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>BAR Package</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
@@ -11005,7 +11961,7 @@
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -11020,7 +11976,7 @@
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>BARPKG</t>
         </is>
       </c>
       <c r="BN18"/>
@@ -11112,7 +12068,7 @@
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
@@ -11137,7 +12093,7 @@
       </c>
       <c r="CL18" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet</t>
         </is>
       </c>
       <c r="CM18" t="inlineStr">
@@ -11222,12 +12178,12 @@
       </c>
       <c r="DC18" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD18" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE18" t="inlineStr">
@@ -11263,19 +12219,19 @@
       </c>
       <c r="DP18" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DQ18" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR18" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DQ18" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DR18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="DS18" t="inlineStr">
         <is>
           <t>28</t>
@@ -11336,21 +12292,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="EE18"/>
-      <c r="EF18"/>
+      <c r="EE18" t="inlineStr">
+        <is>
+          <t>392587448</t>
+        </is>
+      </c>
+      <c r="EF18" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
       <c r="EG18" t="inlineStr">
         <is>
-          <t/>
+          <t>All</t>
         </is>
       </c>
       <c r="EH18" t="inlineStr">
         <is>
-          <t>392123256</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="EI18" t="inlineStr">
         <is>
-          <t>392123256</t>
+          <t>392681561</t>
         </is>
       </c>
       <c r="EJ18"/>
@@ -11366,29 +12330,55 @@
       </c>
       <c r="EM18" t="inlineStr">
         <is>
+          <t>2 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EP18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EQ18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ER18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ES18" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN18" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET18"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>98487708</t>
+          <t>99939491</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -11403,7 +12393,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>98487708</t>
+          <t>99939491</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -11418,7 +12408,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -11448,37 +12438,37 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Superb Studio Apartment With Views Near Camden</t>
+          <t>Spacious Studio Suite Near Regents Park</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>322933484</t>
+          <t>323705817</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>3690905</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -11496,7 +12486,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y19"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z19" t="inlineStr">
         <is>
           <t>1</t>
@@ -11509,22 +12503,22 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>Bathroom:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Refrigerator:BookableUnit,Microwave:BookableUnit,Oven:InRoom:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,Iron:BookableUnit,Heating:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,Toiletries:UnknownAvailability:BookableUnit,HairDryer:BookableUnit,SeparateLivingRoom:BookableUnit,Kitchen:BookableUnit,WiFi:InRoom:Free:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,WiredInternet:InRoom:Free:BookableUnit,Spices:BookableUnit,Towels:Available:BookableUnit,Desk:UnknownAvailability:BookableUnit,ElectricKettle:BookableUnit,Toaster:BookableUnit,RoomSize:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,Crib:UnknownAvailability:BookableUnit,AirConditioning:UnknownAvailability:BookableUnit,CookwareDishwareUtensils:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,DigitalTV:BookableUnit,Bathroom:Private:Boo</t>
+          <t>Wheelchair:Accessible:UnknownAvailability:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,Kitchen:BookableUnit,Iron:BookableUnit,WiFi:InRoom:Free:BookableUnit,FlatscreenTV:BookableUnit,BathtubOrShower:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,HairDryer:BookableUnit,Bathroom:Private:BookableUnit,SeparateLivingRoom:BookableUnit,Refrigerator:BookableUnit,NoSpecialViews:BookableUnit,Bedroom:BookableUnit,RoomSize:BookableUnit,CookwareDishwareUtensils:BookableUnit,Microwave:BookableUnit,Bathroom:BookableUnit,Stovetop:BookableUnit</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
@@ -11539,7 +12533,7 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -11549,7 +12543,7 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -11565,7 +12559,11 @@
       <c r="AQ19"/>
       <c r="AR19"/>
       <c r="AS19"/>
-      <c r="AT19"/>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU19"/>
       <c r="AV19"/>
       <c r="AW19" t="inlineStr">
@@ -11575,14 +12573,14 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY19" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ19" t="inlineStr">
         <is>
           <t/>
@@ -11605,7 +12603,7 @@
       </c>
       <c r="BD19" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE19" t="inlineStr">
@@ -11615,12 +12613,12 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>392123265</t>
+          <t>392681562</t>
         </is>
       </c>
       <c r="BG19" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>Early Book</t>
         </is>
       </c>
       <c r="BH19" t="inlineStr">
@@ -11635,7 +12633,7 @@
       </c>
       <c r="BJ19" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="BK19" t="inlineStr">
@@ -11650,7 +12648,7 @@
       </c>
       <c r="BM19" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>EB30</t>
         </is>
       </c>
       <c r="BN19"/>
@@ -11742,7 +12740,7 @@
       </c>
       <c r="CG19" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH19" t="inlineStr">
@@ -11767,7 +12765,7 @@
       </c>
       <c r="CL19" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet</t>
         </is>
       </c>
       <c r="CM19" t="inlineStr">
@@ -11852,12 +12850,12 @@
       </c>
       <c r="DC19" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD19" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE19" t="inlineStr">
@@ -11893,19 +12891,19 @@
       </c>
       <c r="DP19" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="DQ19" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR19" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DQ19" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DR19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="DS19" t="inlineStr">
         <is>
           <t>28</t>
@@ -11966,21 +12964,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="EE19"/>
-      <c r="EF19"/>
+      <c r="EE19" t="inlineStr">
+        <is>
+          <t>392587448</t>
+        </is>
+      </c>
+      <c r="EF19" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
       <c r="EG19" t="inlineStr">
         <is>
-          <t/>
+          <t>All</t>
         </is>
       </c>
       <c r="EH19" t="inlineStr">
         <is>
-          <t>392123265</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="EI19" t="inlineStr">
         <is>
-          <t>392123265</t>
+          <t>392681562</t>
         </is>
       </c>
       <c r="EJ19"/>
@@ -11996,29 +13002,55 @@
       </c>
       <c r="EM19" t="inlineStr">
         <is>
+          <t>2 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EP19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EQ19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ER19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ES19" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN19" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET19"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>98853718</t>
+          <t>99939492</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -12033,7 +13065,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>98853718</t>
+          <t>99939492</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -12048,7 +13080,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -12078,37 +13110,37 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Spacious Studio Suite Near Regent s Park</t>
+          <t>Deluxe Studio Suite in Historic Camden Terrace</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>323266070</t>
+          <t>323705814</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>3690906</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -12126,7 +13158,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y20"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z20" t="inlineStr">
         <is>
           <t>1</t>
@@ -12139,22 +13175,22 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>Pets:InRoom:UnknownAvailability:BookableUnit,Television:BookableUnit,Bathroom:BookableUnit,Spices:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Towels:Available:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,CookwareDishwareUtensils:BookableUnit,Oven:InRoom:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,HairDryer:BookableUnit,Heating:BookableUnit,Pool:InRoom:Private:BookableUnit:UnknownAvailability,RoomSize:BookableUnit,Bedsheets:Available:BookableUnit,WiFi:InRoom:Free:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,ElectricKettle:BookableUnit,Toiletries:UnknownAvailability:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Crib:UnknownAvailability:BookableUnit,Kitchen:BookableUnit,DigitalTV:BookableUnit,SeparateLivingRoom:BookableUnit,CoffeeTeaMaker:InRoom:BookableUnit,AirConditioning:UnknownAvailability:BookableUnit,Bedroom:BookableUnit,CeilingFan:UnknownAvailability:BookableUnit,Dishwasher:UnknownAvailability:BookableUnit,Laundry:InRoom:BookableUnit:U</t>
+          <t>Stovetop:BookableUnit,Bathroom:Private:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,SeparateLivingRoom:BookableUnit,FlatscreenTV:BookableUnit,Bedroom:BookableUnit,Iron:BookableUnit,NoSpecialViews:BookableUnit,CookwareDishwareUtensils:BookableUnit,Refrigerator:BookableUnit,Kitchen:BookableUnit,RoomSize:BookableUnit,Desk:BookableUnit,Microwave:BookableUnit,Bathroom:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,TurndownService:BookableUnit,WiFi:InRoom:Free:BookableUnit,HairDryer:BookableUnit,BathtubOrShower:BookableUnit</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
@@ -12169,17 +13205,17 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t/>
+          <t>RoomSize</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
@@ -12195,7 +13231,11 @@
       <c r="AQ20"/>
       <c r="AR20"/>
       <c r="AS20"/>
-      <c r="AT20"/>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU20"/>
       <c r="AV20"/>
       <c r="AW20" t="inlineStr">
@@ -12205,14 +13245,14 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY20" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ20" t="inlineStr">
         <is>
           <t/>
@@ -12235,7 +13275,7 @@
       </c>
       <c r="BD20" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE20" t="inlineStr">
@@ -12245,12 +13285,12 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>392170188</t>
+          <t>392587442</t>
         </is>
       </c>
       <c r="BG20" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>3690906</t>
         </is>
       </c>
       <c r="BH20" t="inlineStr">
@@ -12265,7 +13305,7 @@
       </c>
       <c r="BJ20" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="BK20" t="inlineStr">
@@ -12280,7 +13320,7 @@
       </c>
       <c r="BM20" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>3690906</t>
         </is>
       </c>
       <c r="BN20"/>
@@ -12372,7 +13412,7 @@
       </c>
       <c r="CG20" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH20" t="inlineStr">
@@ -12397,7 +13437,7 @@
       </c>
       <c r="CL20" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet</t>
         </is>
       </c>
       <c r="CM20" t="inlineStr">
@@ -12482,12 +13522,12 @@
       </c>
       <c r="DC20" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD20" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE20" t="inlineStr">
@@ -12523,7 +13563,7 @@
       </c>
       <c r="DP20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="DQ20" t="inlineStr">
@@ -12605,12 +13645,12 @@
       </c>
       <c r="EH20" t="inlineStr">
         <is>
-          <t>392170188</t>
+          <t>392587442</t>
         </is>
       </c>
       <c r="EI20" t="inlineStr">
         <is>
-          <t>392170188</t>
+          <t>392587442</t>
         </is>
       </c>
       <c r="EJ20"/>
@@ -12626,29 +13666,55 @@
       </c>
       <c r="EM20" t="inlineStr">
         <is>
+          <t>1 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO20" t="inlineStr">
+        <is>
+          <t>1 Crib | Crib</t>
+        </is>
+      </c>
+      <c r="EP20" t="inlineStr">
+        <is>
+          <t>Surcharge</t>
+        </is>
+      </c>
+      <c r="EQ20" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="ER20" t="inlineStr">
+        <is>
+          <t>per stay</t>
+        </is>
+      </c>
+      <c r="ES20" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN20" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET20"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>98853894</t>
+          <t>99939492</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EQCTravelStaytion</t>
+          <t>EQC_PA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -12663,7 +13729,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>98853894</t>
+          <t>99939492</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -12678,7 +13744,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>SellLAR</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -12708,12 +13774,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -12723,22 +13789,22 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>323266067</t>
+          <t>323705814</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>3690906</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -12756,7 +13822,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Y21"/>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
           <t>1</t>
@@ -12769,22 +13839,22 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>CoffeeTeaMaker:InRoom:BookableUnit,WiFi:InRoom:Free:BookableUnit,Bathtub:UnknownAvailability:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,Spices:BookableUnit,RoomSize:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,Towels:Available:BookableUnit,Toaster:BookableUnit,HairDryer:BookableUnit,DigitalTV:BookableUnit,Pets:InRoom:UnknownAvailability:BookableUnit,Toiletries:UnknownAvailability:BookableUnit,Bedroom:BookableUnit,SeparateLivingRoom:BookableUnit,BalconyOrPatio:UnknownAvailability:BookableUnit,Desk:UnknownAvailability:BookableUnit,Microwave:BookableUnit,Heating:BookableUnit,Bedsheets:Available:BookableUnit,RollawayExtraBeds:Unavailable:BookableUnit,CookwareDishwareUtensils:BookableUnit,CeilingFan:UnknownAvailability:BookableUnit,Laundry:InRoom:BookableUnit:UnknownAvailability,Pool:InRoom:Private:BookableUnit:UnknownAvailability,Iron:BookableUnit,ElectricKettle:BookableUnit,Oven:InRoom:BookableUnit,Safe:InRoom:UnknownAvailability:BookableUnit,Bathroom:BookableUnit,Dishwasher:Unkno</t>
+          <t>Stovetop:BookableUnit,Bathroom:Private:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,SeparateLivingRoom:BookableUnit,FlatscreenTV:BookableUnit,Bedroom:BookableUnit,Iron:BookableUnit,NoSpecialViews:BookableUnit,CookwareDishwareUtensils:BookableUnit,Refrigerator:BookableUnit,Kitchen:BookableUnit,RoomSize:BookableUnit,Desk:BookableUnit,Microwave:BookableUnit,Bathroom:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,TurndownService:BookableUnit,WiFi:InRoom:Free:BookableUnit,HairDryer:BookableUnit,BathtubOrShower:BookableUnit</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -12799,17 +13869,17 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t/>
+          <t>RoomSize</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (0 Bedroom)</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
@@ -12825,7 +13895,11 @@
       <c r="AQ21"/>
       <c r="AR21"/>
       <c r="AS21"/>
-      <c r="AT21"/>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
       <c r="AU21"/>
       <c r="AV21"/>
       <c r="AW21" t="inlineStr">
@@ -12835,14 +13909,14 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AZ21" t="inlineStr">
         <is>
           <t/>
@@ -12865,7 +13939,7 @@
       </c>
       <c r="BD21" t="inlineStr">
         <is>
-          <t>2 FullBed | Full</t>
+          <t/>
         </is>
       </c>
       <c r="BE21" t="inlineStr">
@@ -12875,17 +13949,17 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>392170180</t>
+          <t>392681563</t>
         </is>
       </c>
       <c r="BG21" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>BAR Package</t>
         </is>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="BI21" t="inlineStr">
@@ -12895,7 +13969,7 @@
       </c>
       <c r="BJ21" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="BK21" t="inlineStr">
@@ -12910,7 +13984,7 @@
       </c>
       <c r="BM21" t="inlineStr">
         <is>
-          <t>DONOTUSE</t>
+          <t>BARPKG</t>
         </is>
       </c>
       <c r="BN21"/>
@@ -13002,7 +14076,7 @@
       </c>
       <c r="CG21" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>192</t>
         </is>
       </c>
       <c r="CH21" t="inlineStr">
@@ -13027,7 +14101,7 @@
       </c>
       <c r="CL21" t="inlineStr">
         <is>
-          <t>Standalone FeeSet 2</t>
+          <t>Standalone FeeSet</t>
         </is>
       </c>
       <c r="CM21" t="inlineStr">
@@ -13112,12 +14186,12 @@
       </c>
       <c r="DC21" t="inlineStr">
         <is>
-          <t>EC Default 15.0%</t>
+          <t>EC Default 16.5%</t>
         </is>
       </c>
       <c r="DD21" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="DE21" t="inlineStr">
@@ -13153,19 +14227,19 @@
       </c>
       <c r="DP21" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DQ21" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR21" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DQ21" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DR21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="DS21" t="inlineStr">
         <is>
           <t>28</t>
@@ -13226,21 +14300,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="EE21"/>
-      <c r="EF21"/>
+      <c r="EE21" t="inlineStr">
+        <is>
+          <t>392587442</t>
+        </is>
+      </c>
+      <c r="EF21" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
       <c r="EG21" t="inlineStr">
         <is>
-          <t/>
+          <t>All</t>
         </is>
       </c>
       <c r="EH21" t="inlineStr">
         <is>
-          <t>392170180</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="EI21" t="inlineStr">
         <is>
-          <t>392170180</t>
+          <t>392681563</t>
         </is>
       </c>
       <c r="EJ21"/>
@@ -13256,14 +14338,712 @@
       </c>
       <c r="EM21" t="inlineStr">
         <is>
+          <t>1 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO21" t="inlineStr">
+        <is>
+          <t>1 Crib | Crib</t>
+        </is>
+      </c>
+      <c r="EP21" t="inlineStr">
+        <is>
+          <t>Surcharge</t>
+        </is>
+      </c>
+      <c r="EQ21" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="ER21" t="inlineStr">
+        <is>
+          <t>per stay</t>
+        </is>
+      </c>
+      <c r="ES21" t="inlineStr">
+        <is>
           <t>Retrieved</t>
         </is>
       </c>
-      <c r="EN21" t="inlineStr">
-        <is>
-          <t>Warning: The value of roomAttributes has been truncated to the size of 1024; null</t>
-        </is>
-      </c>
+      <c r="ET21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>99939492</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EQC_PA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>EQC_PA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>99939492</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>SellLAR</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>OccupancyBasedPricing</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Deluxe Studio Suite in Historic Camden Terrace</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>323705814</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>3690906</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>NonSmoking</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Stovetop:BookableUnit,Bathroom:Private:BookableUnit,Bedroom:UnknownAvailability:BookableUnit,WiredInternet:InRoom:Free:BookableUnit,SeparateLivingRoom:BookableUnit,FlatscreenTV:BookableUnit,Bedroom:BookableUnit,Iron:BookableUnit,NoSpecialViews:BookableUnit,CookwareDishwareUtensils:BookableUnit,Refrigerator:BookableUnit,Kitchen:BookableUnit,RoomSize:BookableUnit,Desk:BookableUnit,Microwave:BookableUnit,Bathroom:BookableUnit,Wheelchair:Accessible:UnknownAvailability:BookableUnit,TurndownService:BookableUnit,WiFi:InRoom:Free:BookableUnit,HairDryer:BookableUnit,BathtubOrShower:BookableUnit</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>RoomSize</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>Apartment (0 Bedroom)</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>0 Bedroom</t>
+        </is>
+      </c>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>392681564</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>Early Book</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>OccupancyBasedPricing</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>EB30</t>
+        </is>
+      </c>
+      <c r="BN22"/>
+      <c r="BO22"/>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BZ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>FullCostOfStay</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="CH22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CI22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CJ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="CL22" t="inlineStr">
+        <is>
+          <t>Standalone FeeSet</t>
+        </is>
+      </c>
+      <c r="CM22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CN22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CQ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CR22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CS22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CT22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CU22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CW22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CX22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CY22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CZ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DA22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DB22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DC22" t="inlineStr">
+        <is>
+          <t>EC Default 16.5%</t>
+        </is>
+      </c>
+      <c r="DD22" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="DE22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DF22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DI22"/>
+      <c r="DJ22"/>
+      <c r="DK22"/>
+      <c r="DL22"/>
+      <c r="DM22"/>
+      <c r="DN22"/>
+      <c r="DO22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DP22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="DQ22" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="DR22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DS22" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="DT22" s="3" t="inlineStr">
+        <is>
+          <t>01/01/1900</t>
+        </is>
+      </c>
+      <c r="DU22" s="3" t="inlineStr">
+        <is>
+          <t>06/06/2079</t>
+        </is>
+      </c>
+      <c r="DV22" s="3" t="inlineStr">
+        <is>
+          <t>01/01/1900</t>
+        </is>
+      </c>
+      <c r="DW22" s="3" t="inlineStr">
+        <is>
+          <t>06/06/2079</t>
+        </is>
+      </c>
+      <c r="DX22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DY22" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="DZ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA22" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="EB22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EC22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="EE22" t="inlineStr">
+        <is>
+          <t>392587442</t>
+        </is>
+      </c>
+      <c r="EF22" t="inlineStr">
+        <is>
+          <t>-10.0%</t>
+        </is>
+      </c>
+      <c r="EG22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="EH22" t="inlineStr">
+        <is>
+          <t>Derived</t>
+        </is>
+      </c>
+      <c r="EI22" t="inlineStr">
+        <is>
+          <t>392681564</t>
+        </is>
+      </c>
+      <c r="EJ22"/>
+      <c r="EK22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EL22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EM22" t="inlineStr">
+        <is>
+          <t>1 KingBed | King</t>
+        </is>
+      </c>
+      <c r="EN22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO22" t="inlineStr">
+        <is>
+          <t>1 Crib | Crib</t>
+        </is>
+      </c>
+      <c r="EP22" t="inlineStr">
+        <is>
+          <t>Surcharge</t>
+        </is>
+      </c>
+      <c r="EQ22" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="ER22" t="inlineStr">
+        <is>
+          <t>per stay</t>
+        </is>
+      </c>
+      <c r="ES22" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="ET22"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
